--- a/biology/Botanique/Forêt_de_Creuse/Forêt_de_Creuse.xlsx
+++ b/biology/Botanique/Forêt_de_Creuse/Forêt_de_Creuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Creuse</t>
+          <t>Forêt_de_Creuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt domaniale de Creuse est située à une vingtaine de km au sud-ouest d'Amiens, connue pour sa vallée des orchidées. Ce massif forestier de 291 ha est composé de deux cantons :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Creuse</t>
+          <t>Forêt_de_Creuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt domaniale de Creuse faisait partie du domaine forestier des hospices d’Amiens qui
 comprenait en 1842 environ 500ha de bois.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Creuse</t>
+          <t>Forêt_de_Creuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Les peuplements forestiers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt est constituée de chêne sessile (57 %), hêtre (16 %), tilleul (10 %), chêne pédonculé (8 %), charme (8 %), frêne (1 %) et de Mélèze (1 %).
 </t>
